--- a/Bunderbuurten veghel model/_neighborhoods.xlsx
+++ b/Bunderbuurten veghel model/_neighborhoods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s124129\Documents\GitHub\Buurtmodel-Bunderbuurten-Veghel\Bunderbuurten veghel model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F192D451-AC92-4082-BE35-E53EC214A97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AEE737-CA14-4557-A152-33C4BB89BB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EFD15A55-D0E6-43E5-9141-E20E853C8D35}"/>
+    <workbookView xWindow="7320" yWindow="4215" windowWidth="17280" windowHeight="9030" xr2:uid="{EFD15A55-D0E6-43E5-9141-E20E853C8D35}"/>
   </bookViews>
   <sheets>
     <sheet name="neighborhood_data" sheetId="1" r:id="rId1"/>
@@ -1892,22 +1892,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32FD0F2-0AE7-4047-AD9A-504849A899DE}">
   <dimension ref="A1:BS101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BI1" workbookViewId="0">
-      <selection activeCell="BO13" sqref="BO13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="24" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="42" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="50" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="51" max="52" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="53" max="56" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="24" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="42" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="50" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="56" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1927,10 +1927,10 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" t="s">
         <v>68</v>
-      </c>
-      <c r="H1" t="s">
-        <v>69</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -2122,7 +2122,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -2142,10 +2142,10 @@
         <v>1</v>
       </c>
       <c r="G2">
+        <v>51.62</v>
+      </c>
+      <c r="H2">
         <v>5.359</v>
-      </c>
-      <c r="H2">
-        <v>51.62</v>
       </c>
       <c r="I2" t="s">
         <v>40</v>
@@ -2337,7 +2337,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -2357,10 +2357,10 @@
         <v>1</v>
       </c>
       <c r="G3">
+        <v>51.615000000000002</v>
+      </c>
+      <c r="H3">
         <v>5.3760000000000003</v>
-      </c>
-      <c r="H3">
-        <v>51.615000000000002</v>
       </c>
       <c r="I3" t="s">
         <v>40</v>
@@ -2552,7 +2552,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -2572,10 +2572,10 @@
         <v>1</v>
       </c>
       <c r="G4">
+        <v>51.646000000000001</v>
+      </c>
+      <c r="H4">
         <v>5.4820000000000002</v>
-      </c>
-      <c r="H4">
-        <v>51.646000000000001</v>
       </c>
       <c r="I4" t="s">
         <v>40</v>
@@ -2767,7 +2767,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -2787,10 +2787,10 @@
         <v>1</v>
       </c>
       <c r="G5">
+        <v>51.652999999999999</v>
+      </c>
+      <c r="H5">
         <v>5.4630000000000001</v>
-      </c>
-      <c r="H5">
-        <v>51.652999999999999</v>
       </c>
       <c r="I5" t="s">
         <v>40</v>
@@ -2982,7 +2982,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>97</v>
       </c>
@@ -3002,10 +3002,10 @@
         <v>1</v>
       </c>
       <c r="G6">
+        <v>51.649000000000001</v>
+      </c>
+      <c r="H6">
         <v>5.4859999999999998</v>
-      </c>
-      <c r="H6">
-        <v>51.649000000000001</v>
       </c>
       <c r="I6" t="s">
         <v>40</v>
@@ -3197,7 +3197,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>101</v>
       </c>
@@ -3217,10 +3217,10 @@
         <v>1</v>
       </c>
       <c r="G7">
+        <v>51.654000000000003</v>
+      </c>
+      <c r="H7">
         <v>5.4740000000000002</v>
-      </c>
-      <c r="H7">
-        <v>51.654000000000003</v>
       </c>
       <c r="I7" t="s">
         <v>40</v>
@@ -3412,7 +3412,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -3432,10 +3432,10 @@
         <v>1</v>
       </c>
       <c r="G8">
+        <v>51.652000000000001</v>
+      </c>
+      <c r="H8">
         <v>5.4720000000000004</v>
-      </c>
-      <c r="H8">
-        <v>51.652000000000001</v>
       </c>
       <c r="I8" t="s">
         <v>40</v>
@@ -3627,7 +3627,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>109</v>
       </c>
@@ -3647,10 +3647,10 @@
         <v>1</v>
       </c>
       <c r="G9">
+        <v>51.65</v>
+      </c>
+      <c r="H9">
         <v>5.4790000000000001</v>
-      </c>
-      <c r="H9">
-        <v>51.65</v>
       </c>
       <c r="I9" t="s">
         <v>40</v>
@@ -3842,7 +3842,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>113</v>
       </c>
@@ -3862,10 +3862,10 @@
         <v>1</v>
       </c>
       <c r="G10">
+        <v>51.649000000000001</v>
+      </c>
+      <c r="H10">
         <v>5.468</v>
-      </c>
-      <c r="H10">
-        <v>51.649000000000001</v>
       </c>
       <c r="I10" t="s">
         <v>40</v>
@@ -4057,7 +4057,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>117</v>
       </c>
@@ -4077,10 +4077,10 @@
         <v>1</v>
       </c>
       <c r="G11">
+        <v>51.656999999999996</v>
+      </c>
+      <c r="H11">
         <v>5.47</v>
-      </c>
-      <c r="H11">
-        <v>51.656999999999996</v>
       </c>
       <c r="I11" t="s">
         <v>40</v>
@@ -4272,7 +4272,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>121</v>
       </c>
@@ -4292,10 +4292,10 @@
         <v>1</v>
       </c>
       <c r="G12">
+        <v>51.648000000000003</v>
+      </c>
+      <c r="H12">
         <v>5.4930000000000003</v>
-      </c>
-      <c r="H12">
-        <v>51.648000000000003</v>
       </c>
       <c r="I12" t="s">
         <v>40</v>
@@ -4487,7 +4487,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>125</v>
       </c>
@@ -4507,10 +4507,10 @@
         <v>1</v>
       </c>
       <c r="G13">
+        <v>51.655000000000001</v>
+      </c>
+      <c r="H13">
         <v>5.48</v>
-      </c>
-      <c r="H13">
-        <v>51.655000000000001</v>
       </c>
       <c r="I13" t="s">
         <v>40</v>
@@ -4702,7 +4702,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>129</v>
       </c>
@@ -4722,10 +4722,10 @@
         <v>1</v>
       </c>
       <c r="G14">
+        <v>51.652999999999999</v>
+      </c>
+      <c r="H14">
         <v>5.4850000000000003</v>
-      </c>
-      <c r="H14">
-        <v>51.652999999999999</v>
       </c>
       <c r="I14" t="s">
         <v>40</v>
@@ -4917,7 +4917,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>133</v>
       </c>
@@ -4937,10 +4937,10 @@
         <v>1</v>
       </c>
       <c r="G15">
+        <v>51.639000000000003</v>
+      </c>
+      <c r="H15">
         <v>5.4989999999999997</v>
-      </c>
-      <c r="H15">
-        <v>51.639000000000003</v>
       </c>
       <c r="I15" t="s">
         <v>40</v>
@@ -5132,7 +5132,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>138</v>
       </c>
@@ -5152,10 +5152,10 @@
         <v>1</v>
       </c>
       <c r="G16">
+        <v>51.655000000000001</v>
+      </c>
+      <c r="H16">
         <v>5.4509999999999996</v>
-      </c>
-      <c r="H16">
-        <v>51.655000000000001</v>
       </c>
       <c r="I16" t="s">
         <v>40</v>
@@ -5347,7 +5347,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>142</v>
       </c>
@@ -5367,10 +5367,10 @@
         <v>1</v>
       </c>
       <c r="G17">
+        <v>51.676000000000002</v>
+      </c>
+      <c r="H17">
         <v>5.47</v>
-      </c>
-      <c r="H17">
-        <v>51.676000000000002</v>
       </c>
       <c r="I17" t="s">
         <v>40</v>
@@ -5562,7 +5562,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>146</v>
       </c>
@@ -5582,10 +5582,10 @@
         <v>1</v>
       </c>
       <c r="G18">
+        <v>51.649000000000001</v>
+      </c>
+      <c r="H18">
         <v>5.5259999999999998</v>
-      </c>
-      <c r="H18">
-        <v>51.649000000000001</v>
       </c>
       <c r="I18" t="s">
         <v>40</v>
@@ -5777,7 +5777,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>150</v>
       </c>
@@ -5797,10 +5797,10 @@
         <v>1</v>
       </c>
       <c r="G19">
+        <v>51.664000000000001</v>
+      </c>
+      <c r="H19">
         <v>5.5129999999999999</v>
-      </c>
-      <c r="H19">
-        <v>51.664000000000001</v>
       </c>
       <c r="I19" t="s">
         <v>40</v>
@@ -5992,7 +5992,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>154</v>
       </c>
@@ -6012,10 +6012,10 @@
         <v>1</v>
       </c>
       <c r="G20">
+        <v>51.679000000000002</v>
+      </c>
+      <c r="H20">
         <v>5.508</v>
-      </c>
-      <c r="H20">
-        <v>51.679000000000002</v>
       </c>
       <c r="I20" t="s">
         <v>40</v>
@@ -6207,7 +6207,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>159</v>
       </c>
@@ -6227,10 +6227,10 @@
         <v>1</v>
       </c>
       <c r="G21">
+        <v>51.573999999999998</v>
+      </c>
+      <c r="H21">
         <v>5.5780000000000003</v>
-      </c>
-      <c r="H21">
-        <v>51.573999999999998</v>
       </c>
       <c r="I21" t="s">
         <v>40</v>
@@ -6422,7 +6422,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>167</v>
       </c>
@@ -6442,10 +6442,10 @@
         <v>1</v>
       </c>
       <c r="G22">
+        <v>51.628999999999998</v>
+      </c>
+      <c r="H22">
         <v>5.4240000000000004</v>
-      </c>
-      <c r="H22">
-        <v>51.628999999999998</v>
       </c>
       <c r="I22" t="s">
         <v>40</v>
@@ -6637,7 +6637,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>173</v>
       </c>
@@ -6657,10 +6657,10 @@
         <v>1</v>
       </c>
       <c r="G23">
+        <v>51.625</v>
+      </c>
+      <c r="H23">
         <v>5.4189999999999996</v>
-      </c>
-      <c r="H23">
-        <v>51.625</v>
       </c>
       <c r="I23" t="s">
         <v>40</v>
@@ -6852,7 +6852,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="24" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>178</v>
       </c>
@@ -6872,10 +6872,10 @@
         <v>1</v>
       </c>
       <c r="G24">
+        <v>51.613</v>
+      </c>
+      <c r="H24">
         <v>5.4080000000000004</v>
-      </c>
-      <c r="H24">
-        <v>51.613</v>
       </c>
       <c r="I24" t="s">
         <v>40</v>
@@ -7067,7 +7067,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="25" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>182</v>
       </c>
@@ -7087,10 +7087,10 @@
         <v>1</v>
       </c>
       <c r="G25">
+        <v>51.624000000000002</v>
+      </c>
+      <c r="H25">
         <v>5.4740000000000002</v>
-      </c>
-      <c r="H25">
-        <v>51.624000000000002</v>
       </c>
       <c r="I25" t="s">
         <v>40</v>
@@ -7282,7 +7282,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>186</v>
       </c>
@@ -7302,10 +7302,10 @@
         <v>1</v>
       </c>
       <c r="G26">
+        <v>51.642000000000003</v>
+      </c>
+      <c r="H26">
         <v>5.4139999999999997</v>
-      </c>
-      <c r="H26">
-        <v>51.642000000000003</v>
       </c>
       <c r="I26" t="s">
         <v>40</v>
@@ -7497,7 +7497,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="27" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>190</v>
       </c>
@@ -7517,10 +7517,10 @@
         <v>1</v>
       </c>
       <c r="G27">
+        <v>51.628</v>
+      </c>
+      <c r="H27">
         <v>5.3970000000000002</v>
-      </c>
-      <c r="H27">
-        <v>51.628</v>
       </c>
       <c r="I27" t="s">
         <v>40</v>
@@ -7712,7 +7712,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="28" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>194</v>
       </c>
@@ -7732,10 +7732,10 @@
         <v>1</v>
       </c>
       <c r="G28">
+        <v>51.600999999999999</v>
+      </c>
+      <c r="H28">
         <v>5.4240000000000004</v>
-      </c>
-      <c r="H28">
-        <v>51.600999999999999</v>
       </c>
       <c r="I28" t="s">
         <v>40</v>
@@ -7927,7 +7927,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="29" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>198</v>
       </c>
@@ -7947,10 +7947,10 @@
         <v>1</v>
       </c>
       <c r="G29">
+        <v>51.637999999999998</v>
+      </c>
+      <c r="H29">
         <v>5.4480000000000004</v>
-      </c>
-      <c r="H29">
-        <v>51.637999999999998</v>
       </c>
       <c r="I29" t="s">
         <v>40</v>
@@ -8142,7 +8142,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>202</v>
       </c>
@@ -8162,10 +8162,10 @@
         <v>1</v>
       </c>
       <c r="G30">
+        <v>51.600999999999999</v>
+      </c>
+      <c r="H30">
         <v>5.4729999999999999</v>
-      </c>
-      <c r="H30">
-        <v>51.600999999999999</v>
       </c>
       <c r="I30" t="s">
         <v>40</v>
@@ -8357,7 +8357,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="31" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>206</v>
       </c>
@@ -8377,10 +8377,10 @@
         <v>1</v>
       </c>
       <c r="G31">
+        <v>51.62</v>
+      </c>
+      <c r="H31">
         <v>5.4450000000000003</v>
-      </c>
-      <c r="H31">
-        <v>51.62</v>
       </c>
       <c r="I31" t="s">
         <v>40</v>
@@ -8572,7 +8572,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="32" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>210</v>
       </c>
@@ -8592,10 +8592,10 @@
         <v>1</v>
       </c>
       <c r="G32">
+        <v>51.616</v>
+      </c>
+      <c r="H32">
         <v>5.444</v>
-      </c>
-      <c r="H32">
-        <v>51.616</v>
       </c>
       <c r="I32" t="s">
         <v>40</v>
@@ -8787,7 +8787,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="33" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>214</v>
       </c>
@@ -8807,10 +8807,10 @@
         <v>1</v>
       </c>
       <c r="G33">
+        <v>51.616999999999997</v>
+      </c>
+      <c r="H33">
         <v>5.4269999999999996</v>
-      </c>
-      <c r="H33">
-        <v>51.616999999999997</v>
       </c>
       <c r="I33" t="s">
         <v>40</v>
@@ -9002,7 +9002,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="34" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>218</v>
       </c>
@@ -9022,10 +9022,10 @@
         <v>1</v>
       </c>
       <c r="G34">
+        <v>51.622999999999998</v>
+      </c>
+      <c r="H34">
         <v>5.4249999999999998</v>
-      </c>
-      <c r="H34">
-        <v>51.622999999999998</v>
       </c>
       <c r="I34" t="s">
         <v>40</v>
@@ -9217,7 +9217,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="35" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>222</v>
       </c>
@@ -9237,10 +9237,10 @@
         <v>1</v>
       </c>
       <c r="G35">
+        <v>51.610999999999997</v>
+      </c>
+      <c r="H35">
         <v>5.4669999999999996</v>
-      </c>
-      <c r="H35">
-        <v>51.610999999999997</v>
       </c>
       <c r="I35" t="s">
         <v>40</v>
@@ -9432,7 +9432,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="36" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>226</v>
       </c>
@@ -9452,10 +9452,10 @@
         <v>1</v>
       </c>
       <c r="G36">
+        <v>51.606000000000002</v>
+      </c>
+      <c r="H36">
         <v>5.4690000000000003</v>
-      </c>
-      <c r="H36">
-        <v>51.606000000000002</v>
       </c>
       <c r="I36" t="s">
         <v>40</v>
@@ -9647,7 +9647,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="37" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>230</v>
       </c>
@@ -9667,10 +9667,10 @@
         <v>1</v>
       </c>
       <c r="G37">
+        <v>51.627000000000002</v>
+      </c>
+      <c r="H37">
         <v>5.4139999999999997</v>
-      </c>
-      <c r="H37">
-        <v>51.627000000000002</v>
       </c>
       <c r="I37" t="s">
         <v>40</v>
@@ -9862,7 +9862,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="38" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>234</v>
       </c>
@@ -9882,10 +9882,10 @@
         <v>1</v>
       </c>
       <c r="G38">
+        <v>51.613999999999997</v>
+      </c>
+      <c r="H38">
         <v>5.4509999999999996</v>
-      </c>
-      <c r="H38">
-        <v>51.613999999999997</v>
       </c>
       <c r="I38" t="s">
         <v>40</v>
@@ -10077,7 +10077,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="39" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>238</v>
       </c>
@@ -10097,10 +10097,10 @@
         <v>1</v>
       </c>
       <c r="G39">
+        <v>51.625999999999998</v>
+      </c>
+      <c r="H39">
         <v>5.431</v>
-      </c>
-      <c r="H39">
-        <v>51.625999999999998</v>
       </c>
       <c r="I39" t="s">
         <v>40</v>
@@ -10292,7 +10292,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="40" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>242</v>
       </c>
@@ -10312,10 +10312,10 @@
         <v>1</v>
       </c>
       <c r="G40">
+        <v>51.61</v>
+      </c>
+      <c r="H40">
         <v>5.452</v>
-      </c>
-      <c r="H40">
-        <v>51.61</v>
       </c>
       <c r="I40" t="s">
         <v>40</v>
@@ -10507,7 +10507,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="41" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>246</v>
       </c>
@@ -10527,10 +10527,10 @@
         <v>1</v>
       </c>
       <c r="G41">
+        <v>51.633000000000003</v>
+      </c>
+      <c r="H41">
         <v>5.4169999999999998</v>
-      </c>
-      <c r="H41">
-        <v>51.633000000000003</v>
       </c>
       <c r="I41" t="s">
         <v>40</v>
@@ -10722,7 +10722,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="42" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>250</v>
       </c>
@@ -10742,10 +10742,10 @@
         <v>1</v>
       </c>
       <c r="G42">
+        <v>51.613</v>
+      </c>
+      <c r="H42">
         <v>5.4409999999999998</v>
-      </c>
-      <c r="H42">
-        <v>51.613</v>
       </c>
       <c r="I42" t="s">
         <v>40</v>
@@ -10937,7 +10937,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="43" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>254</v>
       </c>
@@ -10957,10 +10957,10 @@
         <v>1</v>
       </c>
       <c r="G43">
+        <v>51.61</v>
+      </c>
+      <c r="H43">
         <v>5.444</v>
-      </c>
-      <c r="H43">
-        <v>51.61</v>
       </c>
       <c r="I43" t="s">
         <v>40</v>
@@ -11152,7 +11152,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="44" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>258</v>
       </c>
@@ -11172,10 +11172,10 @@
         <v>1</v>
       </c>
       <c r="G44">
+        <v>51.613999999999997</v>
+      </c>
+      <c r="H44">
         <v>5.4359999999999999</v>
-      </c>
-      <c r="H44">
-        <v>51.613999999999997</v>
       </c>
       <c r="I44" t="s">
         <v>40</v>
@@ -11367,7 +11367,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="45" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>262</v>
       </c>
@@ -11387,10 +11387,10 @@
         <v>1</v>
       </c>
       <c r="G45">
+        <v>51.606000000000002</v>
+      </c>
+      <c r="H45">
         <v>5.444</v>
-      </c>
-      <c r="H45">
-        <v>51.606000000000002</v>
       </c>
       <c r="I45" t="s">
         <v>40</v>
@@ -11582,7 +11582,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="46" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>266</v>
       </c>
@@ -11602,10 +11602,10 @@
         <v>1</v>
       </c>
       <c r="G46">
+        <v>51.619</v>
+      </c>
+      <c r="H46">
         <v>5.4370000000000003</v>
-      </c>
-      <c r="H46">
-        <v>51.619</v>
       </c>
       <c r="I46" t="s">
         <v>40</v>
@@ -11797,7 +11797,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="47" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>270</v>
       </c>
@@ -11817,10 +11817,10 @@
         <v>1</v>
       </c>
       <c r="G47">
+        <v>51.618000000000002</v>
+      </c>
+      <c r="H47">
         <v>5.4329999999999998</v>
-      </c>
-      <c r="H47">
-        <v>51.618000000000002</v>
       </c>
       <c r="I47" t="s">
         <v>40</v>
@@ -12012,7 +12012,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="48" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>274</v>
       </c>
@@ -12032,10 +12032,10 @@
         <v>1</v>
       </c>
       <c r="G48">
+        <v>51.622999999999998</v>
+      </c>
+      <c r="H48">
         <v>5.4329999999999998</v>
-      </c>
-      <c r="H48">
-        <v>51.622999999999998</v>
       </c>
       <c r="I48" t="s">
         <v>40</v>
@@ -12227,7 +12227,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="49" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>278</v>
       </c>
@@ -12247,10 +12247,10 @@
         <v>1</v>
       </c>
       <c r="G49">
+        <v>51.621000000000002</v>
+      </c>
+      <c r="H49">
         <v>5.4290000000000003</v>
-      </c>
-      <c r="H49">
-        <v>51.621000000000002</v>
       </c>
       <c r="I49" t="s">
         <v>40</v>
@@ -12442,7 +12442,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="50" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>282</v>
       </c>
@@ -12462,10 +12462,10 @@
         <v>1</v>
       </c>
       <c r="G50">
+        <v>51.616999999999997</v>
+      </c>
+      <c r="H50">
         <v>5.4669999999999996</v>
-      </c>
-      <c r="H50">
-        <v>51.616999999999997</v>
       </c>
       <c r="I50" t="s">
         <v>40</v>
@@ -12657,7 +12657,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="51" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>286</v>
       </c>
@@ -12677,10 +12677,10 @@
         <v>1</v>
       </c>
       <c r="G51">
+        <v>51.569000000000003</v>
+      </c>
+      <c r="H51">
         <v>5.4610000000000003</v>
-      </c>
-      <c r="H51">
-        <v>51.569000000000003</v>
       </c>
       <c r="I51" t="s">
         <v>40</v>
@@ -12872,7 +12872,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="52" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>292</v>
       </c>
@@ -12892,10 +12892,10 @@
         <v>1</v>
       </c>
       <c r="G52">
+        <v>51.551000000000002</v>
+      </c>
+      <c r="H52">
         <v>5.4189999999999996</v>
-      </c>
-      <c r="H52">
-        <v>51.551000000000002</v>
       </c>
       <c r="I52" t="s">
         <v>40</v>
@@ -13087,7 +13087,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="53" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>297</v>
       </c>
@@ -13107,10 +13107,10 @@
         <v>1</v>
       </c>
       <c r="G53">
+        <v>51.552</v>
+      </c>
+      <c r="H53">
         <v>5.4279999999999999</v>
-      </c>
-      <c r="H53">
-        <v>51.552</v>
       </c>
       <c r="I53" t="s">
         <v>40</v>
@@ -13302,7 +13302,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="54" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>301</v>
       </c>
@@ -13322,10 +13322,10 @@
         <v>1</v>
       </c>
       <c r="G54">
+        <v>51.570999999999998</v>
+      </c>
+      <c r="H54">
         <v>5.516</v>
-      </c>
-      <c r="H54">
-        <v>51.570999999999998</v>
       </c>
       <c r="I54" t="s">
         <v>40</v>
@@ -13517,7 +13517,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="55" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>305</v>
       </c>
@@ -13537,10 +13537,10 @@
         <v>1</v>
       </c>
       <c r="G55">
+        <v>51.548000000000002</v>
+      </c>
+      <c r="H55">
         <v>5.4669999999999996</v>
-      </c>
-      <c r="H55">
-        <v>51.548000000000002</v>
       </c>
       <c r="I55" t="s">
         <v>40</v>
@@ -13732,7 +13732,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="56" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>309</v>
       </c>
@@ -13752,10 +13752,10 @@
         <v>1</v>
       </c>
       <c r="G56">
+        <v>51.584000000000003</v>
+      </c>
+      <c r="H56">
         <v>5.4089999999999998</v>
-      </c>
-      <c r="H56">
-        <v>51.584000000000003</v>
       </c>
       <c r="I56" t="s">
         <v>40</v>
@@ -13947,7 +13947,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="57" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>313</v>
       </c>
@@ -13967,10 +13967,10 @@
         <v>1</v>
       </c>
       <c r="G57">
+        <v>51.581000000000003</v>
+      </c>
+      <c r="H57">
         <v>5.444</v>
-      </c>
-      <c r="H57">
-        <v>51.581000000000003</v>
       </c>
       <c r="I57" t="s">
         <v>40</v>
@@ -14162,7 +14162,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="58" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>317</v>
       </c>
@@ -14182,10 +14182,10 @@
         <v>1</v>
       </c>
       <c r="G58">
+        <v>51.587000000000003</v>
+      </c>
+      <c r="H58">
         <v>5.4740000000000002</v>
-      </c>
-      <c r="H58">
-        <v>51.587000000000003</v>
       </c>
       <c r="I58" t="s">
         <v>40</v>
@@ -14377,7 +14377,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="59" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>321</v>
       </c>
@@ -14397,10 +14397,10 @@
         <v>1</v>
       </c>
       <c r="G59">
+        <v>51.543999999999997</v>
+      </c>
+      <c r="H59">
         <v>5.51</v>
-      </c>
-      <c r="H59">
-        <v>51.543999999999997</v>
       </c>
       <c r="I59" t="s">
         <v>40</v>
@@ -14592,7 +14592,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="60" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>325</v>
       </c>
@@ -14612,10 +14612,10 @@
         <v>1</v>
       </c>
       <c r="G60">
+        <v>51.57</v>
+      </c>
+      <c r="H60">
         <v>5.4489999999999998</v>
-      </c>
-      <c r="H60">
-        <v>51.57</v>
       </c>
       <c r="I60" t="s">
         <v>40</v>
@@ -14807,7 +14807,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="61" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>329</v>
       </c>
@@ -14827,10 +14827,10 @@
         <v>1</v>
       </c>
       <c r="G61">
+        <v>51.569000000000003</v>
+      </c>
+      <c r="H61">
         <v>5.4710000000000001</v>
-      </c>
-      <c r="H61">
-        <v>51.569000000000003</v>
       </c>
       <c r="I61" t="s">
         <v>40</v>
@@ -15022,7 +15022,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="62" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>333</v>
       </c>
@@ -15042,10 +15042,10 @@
         <v>1</v>
       </c>
       <c r="G62">
+        <v>51.573999999999998</v>
+      </c>
+      <c r="H62">
         <v>5.4690000000000003</v>
-      </c>
-      <c r="H62">
-        <v>51.573999999999998</v>
       </c>
       <c r="I62" t="s">
         <v>40</v>
@@ -15237,7 +15237,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="63" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>337</v>
       </c>
@@ -15257,10 +15257,10 @@
         <v>1</v>
       </c>
       <c r="G63">
+        <v>51.576000000000001</v>
+      </c>
+      <c r="H63">
         <v>5.4530000000000003</v>
-      </c>
-      <c r="H63">
-        <v>51.576000000000001</v>
       </c>
       <c r="I63" t="s">
         <v>40</v>
@@ -15452,7 +15452,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="64" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>341</v>
       </c>
@@ -15472,10 +15472,10 @@
         <v>1</v>
       </c>
       <c r="G64">
+        <v>51.573</v>
+      </c>
+      <c r="H64">
         <v>5.4569999999999999</v>
-      </c>
-      <c r="H64">
-        <v>51.573</v>
       </c>
       <c r="I64" t="s">
         <v>40</v>
@@ -15667,7 +15667,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="65" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>345</v>
       </c>
@@ -15687,10 +15687,10 @@
         <v>1</v>
       </c>
       <c r="G65">
+        <v>51.552999999999997</v>
+      </c>
+      <c r="H65">
         <v>5.4820000000000002</v>
-      </c>
-      <c r="H65">
-        <v>51.552999999999997</v>
       </c>
       <c r="I65" t="s">
         <v>40</v>
@@ -15882,7 +15882,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="66" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>349</v>
       </c>
@@ -15902,10 +15902,10 @@
         <v>1</v>
       </c>
       <c r="G66">
+        <v>51.581000000000003</v>
+      </c>
+      <c r="H66">
         <v>5.407</v>
-      </c>
-      <c r="H66">
-        <v>51.581000000000003</v>
       </c>
       <c r="I66" t="s">
         <v>40</v>
@@ -16097,7 +16097,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="67" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>353</v>
       </c>
@@ -16117,10 +16117,10 @@
         <v>1</v>
       </c>
       <c r="G67">
+        <v>51.564999999999998</v>
+      </c>
+      <c r="H67">
         <v>5.4589999999999996</v>
-      </c>
-      <c r="H67">
-        <v>51.564999999999998</v>
       </c>
       <c r="I67" t="s">
         <v>40</v>
@@ -16312,7 +16312,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="68" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>357</v>
       </c>
@@ -16332,10 +16332,10 @@
         <v>1</v>
       </c>
       <c r="G68">
+        <v>51.56</v>
+      </c>
+      <c r="H68">
         <v>5.4619999999999997</v>
-      </c>
-      <c r="H68">
-        <v>51.56</v>
       </c>
       <c r="I68" t="s">
         <v>40</v>
@@ -16527,7 +16527,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="69" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>361</v>
       </c>
@@ -16547,10 +16547,10 @@
         <v>1</v>
       </c>
       <c r="G69">
+        <v>51.634</v>
+      </c>
+      <c r="H69">
         <v>5.5620000000000003</v>
-      </c>
-      <c r="H69">
-        <v>51.634</v>
       </c>
       <c r="I69" t="s">
         <v>40</v>
@@ -16742,7 +16742,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="70" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>367</v>
       </c>
@@ -16762,10 +16762,10 @@
         <v>1</v>
       </c>
       <c r="G70">
+        <v>51.631999999999998</v>
+      </c>
+      <c r="H70">
         <v>5.5519999999999996</v>
-      </c>
-      <c r="H70">
-        <v>51.631999999999998</v>
       </c>
       <c r="I70" t="s">
         <v>40</v>
@@ -16957,7 +16957,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="71" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>371</v>
       </c>
@@ -16977,10 +16977,10 @@
         <v>1</v>
       </c>
       <c r="G71">
+        <v>51.621000000000002</v>
+      </c>
+      <c r="H71">
         <v>5.5190000000000001</v>
-      </c>
-      <c r="H71">
-        <v>51.621000000000002</v>
       </c>
       <c r="I71" t="s">
         <v>40</v>
@@ -17172,7 +17172,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="72" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>376</v>
       </c>
@@ -17192,10 +17192,10 @@
         <v>1</v>
       </c>
       <c r="G72">
+        <v>51.612000000000002</v>
+      </c>
+      <c r="H72">
         <v>5.532</v>
-      </c>
-      <c r="H72">
-        <v>51.612000000000002</v>
       </c>
       <c r="I72" t="s">
         <v>40</v>
@@ -17387,7 +17387,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="73" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>380</v>
       </c>
@@ -17407,10 +17407,10 @@
         <v>1</v>
       </c>
       <c r="G73">
+        <v>51.642000000000003</v>
+      </c>
+      <c r="H73">
         <v>5.5620000000000003</v>
-      </c>
-      <c r="H73">
-        <v>51.642000000000003</v>
       </c>
       <c r="I73" t="s">
         <v>40</v>
@@ -17602,7 +17602,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="74" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>384</v>
       </c>
@@ -17622,10 +17622,10 @@
         <v>1</v>
       </c>
       <c r="G74">
+        <v>51.6</v>
+      </c>
+      <c r="H74">
         <v>5.4989999999999997</v>
-      </c>
-      <c r="H74">
-        <v>51.6</v>
       </c>
       <c r="I74" t="s">
         <v>40</v>
@@ -17817,7 +17817,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="75" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>389</v>
       </c>
@@ -17837,10 +17837,10 @@
         <v>1</v>
       </c>
       <c r="G75">
+        <v>51.606000000000002</v>
+      </c>
+      <c r="H75">
         <v>5.569</v>
-      </c>
-      <c r="H75">
-        <v>51.606000000000002</v>
       </c>
       <c r="I75" t="s">
         <v>40</v>
@@ -18032,7 +18032,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="76" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>394</v>
       </c>
@@ -18052,10 +18052,10 @@
         <v>1</v>
       </c>
       <c r="G76">
+        <v>51.567999999999998</v>
+      </c>
+      <c r="H76">
         <v>5.5570000000000004</v>
-      </c>
-      <c r="H76">
-        <v>51.567999999999998</v>
       </c>
       <c r="I76" t="s">
         <v>40</v>
@@ -18247,7 +18247,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="77" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>399</v>
       </c>
@@ -18267,10 +18267,10 @@
         <v>1</v>
       </c>
       <c r="G77">
+        <v>51.628999999999998</v>
+      </c>
+      <c r="H77">
         <v>5.5830000000000002</v>
-      </c>
-      <c r="H77">
-        <v>51.628999999999998</v>
       </c>
       <c r="I77" t="s">
         <v>40</v>
@@ -18462,7 +18462,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="78" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>403</v>
       </c>
@@ -18482,10 +18482,10 @@
         <v>1</v>
       </c>
       <c r="G78">
+        <v>51.628</v>
+      </c>
+      <c r="H78">
         <v>5.5250000000000004</v>
-      </c>
-      <c r="H78">
-        <v>51.628</v>
       </c>
       <c r="I78" t="s">
         <v>40</v>
@@ -18677,7 +18677,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="79" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>408</v>
       </c>
@@ -18697,10 +18697,10 @@
         <v>1</v>
       </c>
       <c r="G79">
+        <v>51.588000000000001</v>
+      </c>
+      <c r="H79">
         <v>5.5410000000000004</v>
-      </c>
-      <c r="H79">
-        <v>51.588000000000001</v>
       </c>
       <c r="I79" t="s">
         <v>40</v>
@@ -18892,7 +18892,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="80" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>412</v>
       </c>
@@ -18912,10 +18912,10 @@
         <v>1</v>
       </c>
       <c r="G80">
+        <v>51.628</v>
+      </c>
+      <c r="H80">
         <v>5.5640000000000001</v>
-      </c>
-      <c r="H80">
-        <v>51.628</v>
       </c>
       <c r="I80" t="s">
         <v>40</v>
@@ -19107,7 +19107,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="81" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>417</v>
       </c>
@@ -19127,10 +19127,10 @@
         <v>1</v>
       </c>
       <c r="G81">
+        <v>51.624000000000002</v>
+      </c>
+      <c r="H81">
         <v>5.5640000000000001</v>
-      </c>
-      <c r="H81">
-        <v>51.624000000000002</v>
       </c>
       <c r="I81" t="s">
         <v>40</v>
@@ -19322,7 +19322,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="82" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>421</v>
       </c>
@@ -19342,10 +19342,10 @@
         <v>1</v>
       </c>
       <c r="G82">
+        <v>51.624000000000002</v>
+      </c>
+      <c r="H82">
         <v>5.5519999999999996</v>
-      </c>
-      <c r="H82">
-        <v>51.624000000000002</v>
       </c>
       <c r="I82" t="s">
         <v>40</v>
@@ -19537,7 +19537,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="83" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>425</v>
       </c>
@@ -19557,10 +19557,10 @@
         <v>1</v>
       </c>
       <c r="G83">
+        <v>51.606000000000002</v>
+      </c>
+      <c r="H83">
         <v>5.5540000000000003</v>
-      </c>
-      <c r="H83">
-        <v>51.606000000000002</v>
       </c>
       <c r="I83" t="s">
         <v>40</v>
@@ -19752,7 +19752,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="84" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>429</v>
       </c>
@@ -19772,10 +19772,10 @@
         <v>1</v>
       </c>
       <c r="G84">
+        <v>51.597000000000001</v>
+      </c>
+      <c r="H84">
         <v>5.5220000000000002</v>
-      </c>
-      <c r="H84">
-        <v>51.597000000000001</v>
       </c>
       <c r="I84" t="s">
         <v>40</v>
@@ -19967,7 +19967,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="85" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>433</v>
       </c>
@@ -19987,10 +19987,10 @@
         <v>1</v>
       </c>
       <c r="G85">
+        <v>51.610999999999997</v>
+      </c>
+      <c r="H85">
         <v>5.5149999999999997</v>
-      </c>
-      <c r="H85">
-        <v>51.610999999999997</v>
       </c>
       <c r="I85" t="s">
         <v>40</v>
@@ -20182,7 +20182,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="86" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>437</v>
       </c>
@@ -20202,10 +20202,10 @@
         <v>1</v>
       </c>
       <c r="G86">
+        <v>51.603999999999999</v>
+      </c>
+      <c r="H86">
         <v>5.4969999999999999</v>
-      </c>
-      <c r="H86">
-        <v>51.603999999999999</v>
       </c>
       <c r="I86" t="s">
         <v>40</v>
@@ -20397,7 +20397,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="87" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>441</v>
       </c>
@@ -20417,10 +20417,10 @@
         <v>1</v>
       </c>
       <c r="G87">
+        <v>51.603999999999999</v>
+      </c>
+      <c r="H87">
         <v>5.5670000000000002</v>
-      </c>
-      <c r="H87">
-        <v>51.603999999999999</v>
       </c>
       <c r="I87" t="s">
         <v>40</v>
@@ -20612,7 +20612,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="88" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>445</v>
       </c>
@@ -20632,10 +20632,10 @@
         <v>1</v>
       </c>
       <c r="G88">
+        <v>51.627000000000002</v>
+      </c>
+      <c r="H88">
         <v>5.5540000000000003</v>
-      </c>
-      <c r="H88">
-        <v>51.627000000000002</v>
       </c>
       <c r="I88" t="s">
         <v>40</v>
@@ -20827,7 +20827,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="89" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>449</v>
       </c>
@@ -20847,10 +20847,10 @@
         <v>1</v>
       </c>
       <c r="G89">
+        <v>51.613999999999997</v>
+      </c>
+      <c r="H89">
         <v>5.54</v>
-      </c>
-      <c r="H89">
-        <v>51.613999999999997</v>
       </c>
       <c r="I89" t="s">
         <v>40</v>
@@ -21042,7 +21042,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="90" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>453</v>
       </c>
@@ -21062,10 +21062,10 @@
         <v>1</v>
       </c>
       <c r="G90">
+        <v>51.622999999999998</v>
+      </c>
+      <c r="H90">
         <v>5.5449999999999999</v>
-      </c>
-      <c r="H90">
-        <v>51.622999999999998</v>
       </c>
       <c r="I90" t="s">
         <v>40</v>
@@ -21257,7 +21257,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="91" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>457</v>
       </c>
@@ -21277,10 +21277,10 @@
         <v>1</v>
       </c>
       <c r="G91">
+        <v>51.62</v>
+      </c>
+      <c r="H91">
         <v>5.5570000000000004</v>
-      </c>
-      <c r="H91">
-        <v>51.62</v>
       </c>
       <c r="I91" t="s">
         <v>40</v>
@@ -21472,7 +21472,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="92" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>461</v>
       </c>
@@ -21492,10 +21492,10 @@
         <v>1</v>
       </c>
       <c r="G92">
+        <v>51.606999999999999</v>
+      </c>
+      <c r="H92">
         <v>5.54</v>
-      </c>
-      <c r="H92">
-        <v>51.606999999999999</v>
       </c>
       <c r="I92" t="s">
         <v>40</v>
@@ -21687,7 +21687,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="93" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>465</v>
       </c>
@@ -21707,10 +21707,10 @@
         <v>1</v>
       </c>
       <c r="G93">
+        <v>51.610999999999997</v>
+      </c>
+      <c r="H93">
         <v>5.5430000000000001</v>
-      </c>
-      <c r="H93">
-        <v>51.610999999999997</v>
       </c>
       <c r="I93" t="s">
         <v>40</v>
@@ -21902,7 +21902,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="94" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>469</v>
       </c>
@@ -21922,10 +21922,10 @@
         <v>1</v>
       </c>
       <c r="G94">
+        <v>51.634</v>
+      </c>
+      <c r="H94">
         <v>5.5810000000000004</v>
-      </c>
-      <c r="H94">
-        <v>51.634</v>
       </c>
       <c r="I94" t="s">
         <v>40</v>
@@ -22117,7 +22117,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="95" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>473</v>
       </c>
@@ -22137,10 +22137,10 @@
         <v>1</v>
       </c>
       <c r="G95">
+        <v>51.616999999999997</v>
+      </c>
+      <c r="H95">
         <v>5.5350000000000001</v>
-      </c>
-      <c r="H95">
-        <v>51.616999999999997</v>
       </c>
       <c r="I95" t="s">
         <v>40</v>
@@ -22332,7 +22332,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="96" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>477</v>
       </c>
@@ -22352,10 +22352,10 @@
         <v>1</v>
       </c>
       <c r="G96">
+        <v>51.613</v>
+      </c>
+      <c r="H96">
         <v>5.5620000000000003</v>
-      </c>
-      <c r="H96">
-        <v>51.613</v>
       </c>
       <c r="I96" t="s">
         <v>40</v>
@@ -22547,7 +22547,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="97" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>481</v>
       </c>
@@ -22567,10 +22567,10 @@
         <v>1</v>
       </c>
       <c r="G97">
+        <v>51.618000000000002</v>
+      </c>
+      <c r="H97">
         <v>5.5460000000000003</v>
-      </c>
-      <c r="H97">
-        <v>51.618000000000002</v>
       </c>
       <c r="I97" t="s">
         <v>40</v>
@@ -22762,7 +22762,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="98" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>485</v>
       </c>
@@ -22782,10 +22782,10 @@
         <v>1</v>
       </c>
       <c r="G98">
+        <v>51.612000000000002</v>
+      </c>
+      <c r="H98">
         <v>5.55</v>
-      </c>
-      <c r="H98">
-        <v>51.612000000000002</v>
       </c>
       <c r="I98" t="s">
         <v>40</v>
@@ -22977,7 +22977,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="99" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>489</v>
       </c>
@@ -22997,10 +22997,10 @@
         <v>1</v>
       </c>
       <c r="G99">
+        <v>51.609000000000002</v>
+      </c>
+      <c r="H99">
         <v>5.5519999999999996</v>
-      </c>
-      <c r="H99">
-        <v>51.609000000000002</v>
       </c>
       <c r="I99" t="s">
         <v>40</v>
@@ -23192,7 +23192,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="100" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>493</v>
       </c>
@@ -23212,10 +23212,10 @@
         <v>1</v>
       </c>
       <c r="G100">
+        <v>51.621000000000002</v>
+      </c>
+      <c r="H100">
         <v>5.5380000000000003</v>
-      </c>
-      <c r="H100">
-        <v>51.621000000000002</v>
       </c>
       <c r="I100" t="s">
         <v>40</v>
@@ -23407,7 +23407,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="101" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>497</v>
       </c>
@@ -23427,10 +23427,10 @@
         <v>1</v>
       </c>
       <c r="G101">
+        <v>51.593000000000004</v>
+      </c>
+      <c r="H101">
         <v>5.5410000000000004</v>
-      </c>
-      <c r="H101">
-        <v>51.593000000000004</v>
       </c>
       <c r="I101" t="s">
         <v>40</v>

--- a/Bunderbuurten veghel model/_neighborhoods.xlsx
+++ b/Bunderbuurten veghel model/_neighborhoods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s124129\Documents\GitHub\Buurtmodel-Bunderbuurten-Veghel\Bunderbuurten veghel model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AEE737-CA14-4557-A152-33C4BB89BB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BD2DDC-533A-4046-A60C-363BA9623762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="4215" windowWidth="17280" windowHeight="9030" xr2:uid="{EFD15A55-D0E6-43E5-9141-E20E853C8D35}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{EFD15A55-D0E6-43E5-9141-E20E853C8D35}"/>
   </bookViews>
   <sheets>
     <sheet name="neighborhood_data" sheetId="1" r:id="rId1"/>
@@ -1893,7 +1893,7 @@
   <dimension ref="A1:BS101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1927,10 +1927,10 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" t="s">
         <v>69</v>
-      </c>
-      <c r="H1" t="s">
-        <v>68</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -2142,10 +2142,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.62</v>
+        <v>5.3586322220931768</v>
       </c>
       <c r="H2">
-        <v>5.359</v>
+        <v>51.61987376615707</v>
       </c>
       <c r="I2" t="s">
         <v>40</v>
@@ -2357,10 +2357,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.615000000000002</v>
+        <v>5.3762496256572012</v>
       </c>
       <c r="H3">
-        <v>5.3760000000000003</v>
+        <v>51.615141649572799</v>
       </c>
       <c r="I3" t="s">
         <v>40</v>
@@ -2572,10 +2572,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.646000000000001</v>
+        <v>5.4823233183292182</v>
       </c>
       <c r="H4">
-        <v>5.4820000000000002</v>
+        <v>51.646459266511897</v>
       </c>
       <c r="I4" t="s">
         <v>40</v>
@@ -2787,10 +2787,10 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>51.652999999999999</v>
+        <v>5.4630797398896354</v>
       </c>
       <c r="H5">
-        <v>5.4630000000000001</v>
+        <v>51.652550619523979</v>
       </c>
       <c r="I5" t="s">
         <v>40</v>
@@ -3002,10 +3002,10 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>51.649000000000001</v>
+        <v>5.4859735903765889</v>
       </c>
       <c r="H6">
-        <v>5.4859999999999998</v>
+        <v>51.649369557643517</v>
       </c>
       <c r="I6" t="s">
         <v>40</v>
@@ -3217,10 +3217,10 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>51.654000000000003</v>
+        <v>5.4741942721130652</v>
       </c>
       <c r="H7">
-        <v>5.4740000000000002</v>
+        <v>51.653823267353928</v>
       </c>
       <c r="I7" t="s">
         <v>40</v>
@@ -3432,10 +3432,10 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>51.652000000000001</v>
+        <v>5.4718832989536104</v>
       </c>
       <c r="H8">
-        <v>5.4720000000000004</v>
+        <v>51.651594611510419</v>
       </c>
       <c r="I8" t="s">
         <v>40</v>
@@ -3647,10 +3647,10 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>51.65</v>
+        <v>5.4788942578157753</v>
       </c>
       <c r="H9">
-        <v>5.4790000000000001</v>
+        <v>51.650441344485401</v>
       </c>
       <c r="I9" t="s">
         <v>40</v>
@@ -3862,10 +3862,10 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>51.649000000000001</v>
+        <v>5.4682762333412942</v>
       </c>
       <c r="H10">
-        <v>5.468</v>
+        <v>51.649079970519907</v>
       </c>
       <c r="I10" t="s">
         <v>40</v>
@@ -4077,10 +4077,10 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>51.656999999999996</v>
+        <v>5.4697950068818928</v>
       </c>
       <c r="H11">
-        <v>5.47</v>
+        <v>51.656876273651577</v>
       </c>
       <c r="I11" t="s">
         <v>40</v>
@@ -4292,10 +4292,10 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>51.648000000000003</v>
+        <v>5.4932503938580313</v>
       </c>
       <c r="H12">
-        <v>5.4930000000000003</v>
+        <v>51.647873868199667</v>
       </c>
       <c r="I12" t="s">
         <v>40</v>
@@ -4507,10 +4507,10 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>51.655000000000001</v>
+        <v>5.4804119344502586</v>
       </c>
       <c r="H13">
-        <v>5.48</v>
+        <v>51.654802277044404</v>
       </c>
       <c r="I13" t="s">
         <v>40</v>
@@ -4722,10 +4722,10 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>51.652999999999999</v>
+        <v>5.4852072999730463</v>
       </c>
       <c r="H14">
-        <v>5.4850000000000003</v>
+        <v>51.653162558037572</v>
       </c>
       <c r="I14" t="s">
         <v>40</v>
@@ -4937,10 +4937,10 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>51.639000000000003</v>
+        <v>5.4990592516330636</v>
       </c>
       <c r="H15">
-        <v>5.4989999999999997</v>
+        <v>51.638676281886113</v>
       </c>
       <c r="I15" t="s">
         <v>40</v>
@@ -5152,10 +5152,10 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>51.655000000000001</v>
+        <v>5.4512774659772578</v>
       </c>
       <c r="H16">
-        <v>5.4509999999999996</v>
+        <v>51.655385590824643</v>
       </c>
       <c r="I16" t="s">
         <v>40</v>
@@ -5367,10 +5367,10 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>51.676000000000002</v>
+        <v>5.4702828369908989</v>
       </c>
       <c r="H17">
-        <v>5.47</v>
+        <v>51.676417242106233</v>
       </c>
       <c r="I17" t="s">
         <v>40</v>
@@ -5582,10 +5582,10 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>51.649000000000001</v>
+        <v>5.5260235450763426</v>
       </c>
       <c r="H18">
-        <v>5.5259999999999998</v>
+        <v>51.648637495970263</v>
       </c>
       <c r="I18" t="s">
         <v>40</v>
@@ -5797,10 +5797,10 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>51.664000000000001</v>
+        <v>5.5132650434779453</v>
       </c>
       <c r="H19">
-        <v>5.5129999999999999</v>
+        <v>51.664265301658617</v>
       </c>
       <c r="I19" t="s">
         <v>40</v>
@@ -6012,10 +6012,10 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>51.679000000000002</v>
+        <v>5.5080405362414346</v>
       </c>
       <c r="H20">
-        <v>5.508</v>
+        <v>51.678795079792692</v>
       </c>
       <c r="I20" t="s">
         <v>40</v>
@@ -6227,10 +6227,10 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>51.573999999999998</v>
+        <v>5.5781551047767994</v>
       </c>
       <c r="H21">
-        <v>5.5780000000000003</v>
+        <v>51.573853220935973</v>
       </c>
       <c r="I21" t="s">
         <v>40</v>
@@ -6442,10 +6442,10 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>51.628999999999998</v>
+        <v>5.4241727275527856</v>
       </c>
       <c r="H22">
-        <v>5.4240000000000004</v>
+        <v>51.629297799746197</v>
       </c>
       <c r="I22" t="s">
         <v>40</v>
@@ -6657,10 +6657,10 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>51.625</v>
+        <v>5.4190194549987876</v>
       </c>
       <c r="H23">
-        <v>5.4189999999999996</v>
+        <v>51.624945391976759</v>
       </c>
       <c r="I23" t="s">
         <v>40</v>
@@ -6872,10 +6872,10 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>51.613</v>
+        <v>5.4079437083828319</v>
       </c>
       <c r="H24">
-        <v>5.4080000000000004</v>
+        <v>51.612695266653759</v>
       </c>
       <c r="I24" t="s">
         <v>40</v>
@@ -7087,10 +7087,10 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>51.624000000000002</v>
+        <v>5.473927301409101</v>
       </c>
       <c r="H25">
-        <v>5.4740000000000002</v>
+        <v>51.62430361985033</v>
       </c>
       <c r="I25" t="s">
         <v>40</v>
@@ -7302,10 +7302,10 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>51.642000000000003</v>
+        <v>5.4136497874507441</v>
       </c>
       <c r="H26">
-        <v>5.4139999999999997</v>
+        <v>51.642040515163337</v>
       </c>
       <c r="I26" t="s">
         <v>40</v>
@@ -7517,10 +7517,10 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>51.628</v>
+        <v>5.3966596001118399</v>
       </c>
       <c r="H27">
-        <v>5.3970000000000002</v>
+        <v>51.628219072108308</v>
       </c>
       <c r="I27" t="s">
         <v>40</v>
@@ -7732,10 +7732,10 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>51.600999999999999</v>
+        <v>5.4243722837192667</v>
       </c>
       <c r="H28">
-        <v>5.4240000000000004</v>
+        <v>51.601090739414254</v>
       </c>
       <c r="I28" t="s">
         <v>40</v>
@@ -7947,10 +7947,10 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>51.637999999999998</v>
+        <v>5.4476153591554413</v>
       </c>
       <c r="H29">
-        <v>5.4480000000000004</v>
+        <v>51.637903051954922</v>
       </c>
       <c r="I29" t="s">
         <v>40</v>
@@ -8162,10 +8162,10 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>51.600999999999999</v>
+        <v>5.4731844089914388</v>
       </c>
       <c r="H30">
-        <v>5.4729999999999999</v>
+        <v>51.601310651299492</v>
       </c>
       <c r="I30" t="s">
         <v>40</v>
@@ -8377,10 +8377,10 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>51.62</v>
+        <v>5.4447133137722119</v>
       </c>
       <c r="H31">
-        <v>5.4450000000000003</v>
+        <v>51.619929405567127</v>
       </c>
       <c r="I31" t="s">
         <v>40</v>
@@ -8592,10 +8592,10 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>51.616</v>
+        <v>5.4436335465204069</v>
       </c>
       <c r="H32">
-        <v>5.444</v>
+        <v>51.616330822455758</v>
       </c>
       <c r="I32" t="s">
         <v>40</v>
@@ -8807,10 +8807,10 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>51.616999999999997</v>
+        <v>5.4271185150327073</v>
       </c>
       <c r="H33">
-        <v>5.4269999999999996</v>
+        <v>51.617136043679608</v>
       </c>
       <c r="I33" t="s">
         <v>40</v>
@@ -9022,10 +9022,10 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>51.622999999999998</v>
+        <v>5.4245833293788452</v>
       </c>
       <c r="H34">
-        <v>5.4249999999999998</v>
+        <v>51.623457339020739</v>
       </c>
       <c r="I34" t="s">
         <v>40</v>
@@ -9237,10 +9237,10 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>51.610999999999997</v>
+        <v>5.4667230656342456</v>
       </c>
       <c r="H35">
-        <v>5.4669999999999996</v>
+        <v>51.610971795137829</v>
       </c>
       <c r="I35" t="s">
         <v>40</v>
@@ -9452,10 +9452,10 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>51.606000000000002</v>
+        <v>5.4685519522894417</v>
       </c>
       <c r="H36">
-        <v>5.4690000000000003</v>
+        <v>51.606474803882207</v>
       </c>
       <c r="I36" t="s">
         <v>40</v>
@@ -9667,10 +9667,10 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>51.627000000000002</v>
+        <v>5.414022494553425</v>
       </c>
       <c r="H37">
-        <v>5.4139999999999997</v>
+        <v>51.627093836939977</v>
       </c>
       <c r="I37" t="s">
         <v>40</v>
@@ -9882,10 +9882,10 @@
         <v>1</v>
       </c>
       <c r="G38">
-        <v>51.613999999999997</v>
+        <v>5.4512050535109964</v>
       </c>
       <c r="H38">
-        <v>5.4509999999999996</v>
+        <v>51.614132970024137</v>
       </c>
       <c r="I38" t="s">
         <v>40</v>
@@ -10097,10 +10097,10 @@
         <v>1</v>
       </c>
       <c r="G39">
-        <v>51.625999999999998</v>
+        <v>5.4311553548430496</v>
       </c>
       <c r="H39">
-        <v>5.431</v>
+        <v>51.625550952105577</v>
       </c>
       <c r="I39" t="s">
         <v>40</v>
@@ -10312,10 +10312,10 @@
         <v>1</v>
       </c>
       <c r="G40">
-        <v>51.61</v>
+        <v>5.452461707508812</v>
       </c>
       <c r="H40">
-        <v>5.452</v>
+        <v>51.610101402095587</v>
       </c>
       <c r="I40" t="s">
         <v>40</v>
@@ -10527,10 +10527,10 @@
         <v>1</v>
       </c>
       <c r="G41">
-        <v>51.633000000000003</v>
+        <v>5.417220283356535</v>
       </c>
       <c r="H41">
-        <v>5.4169999999999998</v>
+        <v>51.632610603721062</v>
       </c>
       <c r="I41" t="s">
         <v>40</v>
@@ -10742,10 +10742,10 @@
         <v>1</v>
       </c>
       <c r="G42">
-        <v>51.613</v>
+        <v>5.4414771793891141</v>
       </c>
       <c r="H42">
-        <v>5.4409999999999998</v>
+        <v>51.613275387608788</v>
       </c>
       <c r="I42" t="s">
         <v>40</v>
@@ -10957,10 +10957,10 @@
         <v>1</v>
       </c>
       <c r="G43">
-        <v>51.61</v>
+        <v>5.4436208412954548</v>
       </c>
       <c r="H43">
-        <v>5.444</v>
+        <v>51.609944031411509</v>
       </c>
       <c r="I43" t="s">
         <v>40</v>
@@ -11172,10 +11172,10 @@
         <v>1</v>
       </c>
       <c r="G44">
-        <v>51.613999999999997</v>
+        <v>5.4362925389484094</v>
       </c>
       <c r="H44">
-        <v>5.4359999999999999</v>
+        <v>51.614187827887037</v>
       </c>
       <c r="I44" t="s">
         <v>40</v>
@@ -11387,10 +11387,10 @@
         <v>1</v>
       </c>
       <c r="G45">
-        <v>51.606000000000002</v>
+        <v>5.4437974343889186</v>
       </c>
       <c r="H45">
-        <v>5.444</v>
+        <v>51.605980899384207</v>
       </c>
       <c r="I45" t="s">
         <v>40</v>
@@ -11602,10 +11602,10 @@
         <v>1</v>
       </c>
       <c r="G46">
-        <v>51.619</v>
+        <v>5.4369897906255478</v>
       </c>
       <c r="H46">
-        <v>5.4370000000000003</v>
+        <v>51.618894428623094</v>
       </c>
       <c r="I46" t="s">
         <v>40</v>
@@ -11817,10 +11817,10 @@
         <v>1</v>
       </c>
       <c r="G47">
-        <v>51.618000000000002</v>
+        <v>5.4330788253202602</v>
       </c>
       <c r="H47">
-        <v>5.4329999999999998</v>
+        <v>51.617556581600688</v>
       </c>
       <c r="I47" t="s">
         <v>40</v>
@@ -12032,10 +12032,10 @@
         <v>1</v>
       </c>
       <c r="G48">
-        <v>51.622999999999998</v>
+        <v>5.4334222598473696</v>
       </c>
       <c r="H48">
-        <v>5.4329999999999998</v>
+        <v>51.622575800659853</v>
       </c>
       <c r="I48" t="s">
         <v>40</v>
@@ -12247,10 +12247,10 @@
         <v>1</v>
       </c>
       <c r="G49">
-        <v>51.621000000000002</v>
+        <v>5.4285090798288103</v>
       </c>
       <c r="H49">
-        <v>5.4290000000000003</v>
+        <v>51.62065078716887</v>
       </c>
       <c r="I49" t="s">
         <v>40</v>
@@ -12462,10 +12462,10 @@
         <v>1</v>
       </c>
       <c r="G50">
-        <v>51.616999999999997</v>
+        <v>5.4674400005127346</v>
       </c>
       <c r="H50">
-        <v>5.4669999999999996</v>
+        <v>51.617285144630458</v>
       </c>
       <c r="I50" t="s">
         <v>40</v>
@@ -12677,10 +12677,10 @@
         <v>1</v>
       </c>
       <c r="G51">
-        <v>51.569000000000003</v>
+        <v>5.4607067622473542</v>
       </c>
       <c r="H51">
-        <v>5.4610000000000003</v>
+        <v>51.569190875717737</v>
       </c>
       <c r="I51" t="s">
         <v>40</v>
@@ -12892,10 +12892,10 @@
         <v>1</v>
       </c>
       <c r="G52">
-        <v>51.551000000000002</v>
+        <v>5.419280739417708</v>
       </c>
       <c r="H52">
-        <v>5.4189999999999996</v>
+        <v>51.550543947786522</v>
       </c>
       <c r="I52" t="s">
         <v>40</v>
@@ -13107,10 +13107,10 @@
         <v>1</v>
       </c>
       <c r="G53">
-        <v>51.552</v>
+        <v>5.4281173323854244</v>
       </c>
       <c r="H53">
-        <v>5.4279999999999999</v>
+        <v>51.551966484480587</v>
       </c>
       <c r="I53" t="s">
         <v>40</v>
@@ -13322,10 +13322,10 @@
         <v>1</v>
       </c>
       <c r="G54">
-        <v>51.570999999999998</v>
+        <v>5.5156764659981308</v>
       </c>
       <c r="H54">
-        <v>5.516</v>
+        <v>51.570692905258568</v>
       </c>
       <c r="I54" t="s">
         <v>40</v>
@@ -13537,10 +13537,10 @@
         <v>1</v>
       </c>
       <c r="G55">
-        <v>51.548000000000002</v>
+        <v>5.467137048710951</v>
       </c>
       <c r="H55">
-        <v>5.4669999999999996</v>
+        <v>51.547821923875212</v>
       </c>
       <c r="I55" t="s">
         <v>40</v>
@@ -13752,10 +13752,10 @@
         <v>1</v>
       </c>
       <c r="G56">
-        <v>51.584000000000003</v>
+        <v>5.4093159781243481</v>
       </c>
       <c r="H56">
-        <v>5.4089999999999998</v>
+        <v>51.584285732738699</v>
       </c>
       <c r="I56" t="s">
         <v>40</v>
@@ -13967,10 +13967,10 @@
         <v>1</v>
       </c>
       <c r="G57">
-        <v>51.581000000000003</v>
+        <v>5.4437599594075001</v>
       </c>
       <c r="H57">
-        <v>5.444</v>
+        <v>51.580559663505298</v>
       </c>
       <c r="I57" t="s">
         <v>40</v>
@@ -14182,10 +14182,10 @@
         <v>1</v>
       </c>
       <c r="G58">
-        <v>51.587000000000003</v>
+        <v>5.473587605777583</v>
       </c>
       <c r="H58">
-        <v>5.4740000000000002</v>
+        <v>51.586997652594548</v>
       </c>
       <c r="I58" t="s">
         <v>40</v>
@@ -14397,10 +14397,10 @@
         <v>1</v>
       </c>
       <c r="G59">
-        <v>51.543999999999997</v>
+        <v>5.5102438079310776</v>
       </c>
       <c r="H59">
-        <v>5.51</v>
+        <v>51.543927264682132</v>
       </c>
       <c r="I59" t="s">
         <v>40</v>
@@ -14612,10 +14612,10 @@
         <v>1</v>
       </c>
       <c r="G60">
-        <v>51.57</v>
+        <v>5.4491157209396874</v>
       </c>
       <c r="H60">
-        <v>5.4489999999999998</v>
+        <v>51.569542374889558</v>
       </c>
       <c r="I60" t="s">
         <v>40</v>
@@ -14827,10 +14827,10 @@
         <v>1</v>
       </c>
       <c r="G61">
-        <v>51.569000000000003</v>
+        <v>5.4705129147903326</v>
       </c>
       <c r="H61">
-        <v>5.4710000000000001</v>
+        <v>51.568612896162222</v>
       </c>
       <c r="I61" t="s">
         <v>40</v>
@@ -15042,10 +15042,10 @@
         <v>1</v>
       </c>
       <c r="G62">
-        <v>51.573999999999998</v>
+        <v>5.468521297268051</v>
       </c>
       <c r="H62">
-        <v>5.4690000000000003</v>
+        <v>51.574044649912338</v>
       </c>
       <c r="I62" t="s">
         <v>40</v>
@@ -15257,10 +15257,10 @@
         <v>1</v>
       </c>
       <c r="G63">
-        <v>51.576000000000001</v>
+        <v>5.4525935036505686</v>
       </c>
       <c r="H63">
-        <v>5.4530000000000003</v>
+        <v>51.5764625006736</v>
       </c>
       <c r="I63" t="s">
         <v>40</v>
@@ -15472,10 +15472,10 @@
         <v>1</v>
       </c>
       <c r="G64">
-        <v>51.573</v>
+        <v>5.4570175681632112</v>
       </c>
       <c r="H64">
-        <v>5.4569999999999999</v>
+        <v>51.573102752310092</v>
       </c>
       <c r="I64" t="s">
         <v>40</v>
@@ -15687,10 +15687,10 @@
         <v>1</v>
       </c>
       <c r="G65">
-        <v>51.552999999999997</v>
+        <v>5.4821666683244983</v>
       </c>
       <c r="H65">
-        <v>5.4820000000000002</v>
+        <v>51.55279536850837</v>
       </c>
       <c r="I65" t="s">
         <v>40</v>
@@ -15902,10 +15902,10 @@
         <v>1</v>
       </c>
       <c r="G66">
-        <v>51.581000000000003</v>
+        <v>5.4070103184239304</v>
       </c>
       <c r="H66">
-        <v>5.407</v>
+        <v>51.581207786284587</v>
       </c>
       <c r="I66" t="s">
         <v>40</v>
@@ -16117,10 +16117,10 @@
         <v>1</v>
       </c>
       <c r="G67">
-        <v>51.564999999999998</v>
+        <v>5.4592693853583674</v>
       </c>
       <c r="H67">
-        <v>5.4589999999999996</v>
+        <v>51.565071866869431</v>
       </c>
       <c r="I67" t="s">
         <v>40</v>
@@ -16332,10 +16332,10 @@
         <v>1</v>
       </c>
       <c r="G68">
-        <v>51.56</v>
+        <v>5.4621773056410889</v>
       </c>
       <c r="H68">
-        <v>5.4619999999999997</v>
+        <v>51.559756599785743</v>
       </c>
       <c r="I68" t="s">
         <v>40</v>
@@ -16547,10 +16547,10 @@
         <v>1</v>
       </c>
       <c r="G69">
-        <v>51.634</v>
+        <v>5.5624257850291752</v>
       </c>
       <c r="H69">
-        <v>5.5620000000000003</v>
+        <v>51.634017535585798</v>
       </c>
       <c r="I69" t="s">
         <v>40</v>
@@ -16762,10 +16762,10 @@
         <v>1</v>
       </c>
       <c r="G70">
-        <v>51.631999999999998</v>
+        <v>5.5522559207141002</v>
       </c>
       <c r="H70">
-        <v>5.5519999999999996</v>
+        <v>51.631636131591179</v>
       </c>
       <c r="I70" t="s">
         <v>40</v>
@@ -16977,10 +16977,10 @@
         <v>1</v>
       </c>
       <c r="G71">
-        <v>51.621000000000002</v>
+        <v>5.5186563781892497</v>
       </c>
       <c r="H71">
-        <v>5.5190000000000001</v>
+        <v>51.62056598325664</v>
       </c>
       <c r="I71" t="s">
         <v>40</v>
@@ -17192,10 +17192,10 @@
         <v>1</v>
       </c>
       <c r="G72">
-        <v>51.612000000000002</v>
+        <v>5.5317124325831042</v>
       </c>
       <c r="H72">
-        <v>5.532</v>
+        <v>51.612109493221119</v>
       </c>
       <c r="I72" t="s">
         <v>40</v>
@@ -17407,10 +17407,10 @@
         <v>1</v>
       </c>
       <c r="G73">
-        <v>51.642000000000003</v>
+        <v>5.5615688762907283</v>
       </c>
       <c r="H73">
-        <v>5.5620000000000003</v>
+        <v>51.641636838131802</v>
       </c>
       <c r="I73" t="s">
         <v>40</v>
@@ -17622,10 +17622,10 @@
         <v>1</v>
       </c>
       <c r="G74">
-        <v>51.6</v>
+        <v>5.4994588238949156</v>
       </c>
       <c r="H74">
-        <v>5.4989999999999997</v>
+        <v>51.600394256069677</v>
       </c>
       <c r="I74" t="s">
         <v>40</v>
@@ -17837,10 +17837,10 @@
         <v>1</v>
       </c>
       <c r="G75">
-        <v>51.606000000000002</v>
+        <v>5.5693618094927224</v>
       </c>
       <c r="H75">
-        <v>5.569</v>
+        <v>51.605964287604777</v>
       </c>
       <c r="I75" t="s">
         <v>40</v>
@@ -18052,10 +18052,10 @@
         <v>1</v>
       </c>
       <c r="G76">
-        <v>51.567999999999998</v>
+        <v>5.5566587337355751</v>
       </c>
       <c r="H76">
-        <v>5.5570000000000004</v>
+        <v>51.56770418353598</v>
       </c>
       <c r="I76" t="s">
         <v>40</v>
@@ -18267,10 +18267,10 @@
         <v>1</v>
       </c>
       <c r="G77">
-        <v>51.628999999999998</v>
+        <v>5.5831975436145527</v>
       </c>
       <c r="H77">
-        <v>5.5830000000000002</v>
+        <v>51.629000356055229</v>
       </c>
       <c r="I77" t="s">
         <v>40</v>
@@ -18482,10 +18482,10 @@
         <v>1</v>
       </c>
       <c r="G78">
-        <v>51.628</v>
+        <v>5.5248305073567181</v>
       </c>
       <c r="H78">
-        <v>5.5250000000000004</v>
+        <v>51.628239100171378</v>
       </c>
       <c r="I78" t="s">
         <v>40</v>
@@ -18697,10 +18697,10 @@
         <v>1</v>
       </c>
       <c r="G79">
-        <v>51.588000000000001</v>
+        <v>5.5407960170913082</v>
       </c>
       <c r="H79">
-        <v>5.5410000000000004</v>
+        <v>51.588250408325628</v>
       </c>
       <c r="I79" t="s">
         <v>40</v>
@@ -18912,10 +18912,10 @@
         <v>1</v>
       </c>
       <c r="G80">
-        <v>51.628</v>
+        <v>5.5635885158603031</v>
       </c>
       <c r="H80">
-        <v>5.5640000000000001</v>
+        <v>51.628362152281937</v>
       </c>
       <c r="I80" t="s">
         <v>40</v>
@@ -19127,10 +19127,10 @@
         <v>1</v>
       </c>
       <c r="G81">
-        <v>51.624000000000002</v>
+        <v>5.563791314933872</v>
       </c>
       <c r="H81">
-        <v>5.5640000000000001</v>
+        <v>51.623856203544122</v>
       </c>
       <c r="I81" t="s">
         <v>40</v>
@@ -19342,10 +19342,10 @@
         <v>1</v>
       </c>
       <c r="G82">
-        <v>51.624000000000002</v>
+        <v>5.5522097629289986</v>
       </c>
       <c r="H82">
-        <v>5.5519999999999996</v>
+        <v>51.62398882963442</v>
       </c>
       <c r="I82" t="s">
         <v>40</v>
@@ -19557,10 +19557,10 @@
         <v>1</v>
       </c>
       <c r="G83">
-        <v>51.606000000000002</v>
+        <v>5.5537412260984853</v>
       </c>
       <c r="H83">
-        <v>5.5540000000000003</v>
+        <v>51.606170025655658</v>
       </c>
       <c r="I83" t="s">
         <v>40</v>
@@ -19772,10 +19772,10 @@
         <v>1</v>
       </c>
       <c r="G84">
-        <v>51.597000000000001</v>
+        <v>5.5216310171119023</v>
       </c>
       <c r="H84">
-        <v>5.5220000000000002</v>
+        <v>51.597283835410742</v>
       </c>
       <c r="I84" t="s">
         <v>40</v>
@@ -19987,10 +19987,10 @@
         <v>1</v>
       </c>
       <c r="G85">
-        <v>51.610999999999997</v>
+        <v>5.5149267287937276</v>
       </c>
       <c r="H85">
-        <v>5.5149999999999997</v>
+        <v>51.610691841517912</v>
       </c>
       <c r="I85" t="s">
         <v>40</v>
@@ -20202,10 +20202,10 @@
         <v>1</v>
       </c>
       <c r="G86">
-        <v>51.603999999999999</v>
+        <v>5.4973898688597549</v>
       </c>
       <c r="H86">
-        <v>5.4969999999999999</v>
+        <v>51.604374139185452</v>
       </c>
       <c r="I86" t="s">
         <v>40</v>
@@ -20417,10 +20417,10 @@
         <v>1</v>
       </c>
       <c r="G87">
-        <v>51.603999999999999</v>
+        <v>5.5673201305593922</v>
       </c>
       <c r="H87">
-        <v>5.5670000000000002</v>
+        <v>51.603904966114108</v>
       </c>
       <c r="I87" t="s">
         <v>40</v>
@@ -20632,10 +20632,10 @@
         <v>1</v>
       </c>
       <c r="G88">
-        <v>51.627000000000002</v>
+        <v>5.5537527260778701</v>
       </c>
       <c r="H88">
-        <v>5.5540000000000003</v>
+        <v>51.627201716280403</v>
       </c>
       <c r="I88" t="s">
         <v>40</v>
@@ -20847,10 +20847,10 @@
         <v>1</v>
       </c>
       <c r="G89">
-        <v>51.613999999999997</v>
+        <v>5.5402225618773953</v>
       </c>
       <c r="H89">
-        <v>5.54</v>
+        <v>51.61365786673359</v>
       </c>
       <c r="I89" t="s">
         <v>40</v>
@@ -21062,10 +21062,10 @@
         <v>1</v>
       </c>
       <c r="G90">
-        <v>51.622999999999998</v>
+        <v>5.545246278073761</v>
       </c>
       <c r="H90">
-        <v>5.5449999999999999</v>
+        <v>51.622914108383647</v>
       </c>
       <c r="I90" t="s">
         <v>40</v>
@@ -21277,10 +21277,10 @@
         <v>1</v>
       </c>
       <c r="G91">
-        <v>51.62</v>
+        <v>5.5574583971830949</v>
       </c>
       <c r="H91">
-        <v>5.5570000000000004</v>
+        <v>51.620096358880247</v>
       </c>
       <c r="I91" t="s">
         <v>40</v>
@@ -21492,10 +21492,10 @@
         <v>1</v>
       </c>
       <c r="G92">
-        <v>51.606999999999999</v>
+        <v>5.5399848298155661</v>
       </c>
       <c r="H92">
-        <v>5.54</v>
+        <v>51.606960663111003</v>
       </c>
       <c r="I92" t="s">
         <v>40</v>
@@ -21707,10 +21707,10 @@
         <v>1</v>
       </c>
       <c r="G93">
-        <v>51.610999999999997</v>
+        <v>5.5428949868554964</v>
       </c>
       <c r="H93">
-        <v>5.5430000000000001</v>
+        <v>51.610557282077721</v>
       </c>
       <c r="I93" t="s">
         <v>40</v>
@@ -21922,10 +21922,10 @@
         <v>1</v>
       </c>
       <c r="G94">
-        <v>51.634</v>
+        <v>5.5805300583021147</v>
       </c>
       <c r="H94">
-        <v>5.5810000000000004</v>
+        <v>51.633868793760342</v>
       </c>
       <c r="I94" t="s">
         <v>40</v>
@@ -22137,10 +22137,10 @@
         <v>1</v>
       </c>
       <c r="G95">
-        <v>51.616999999999997</v>
+        <v>5.5346674511126661</v>
       </c>
       <c r="H95">
-        <v>5.5350000000000001</v>
+        <v>51.616920391220113</v>
       </c>
       <c r="I95" t="s">
         <v>40</v>
@@ -22352,10 +22352,10 @@
         <v>1</v>
       </c>
       <c r="G96">
-        <v>51.613</v>
+        <v>5.5618473927866363</v>
       </c>
       <c r="H96">
-        <v>5.5620000000000003</v>
+        <v>51.613462744034528</v>
       </c>
       <c r="I96" t="s">
         <v>40</v>
@@ -22567,10 +22567,10 @@
         <v>1</v>
       </c>
       <c r="G97">
-        <v>51.618000000000002</v>
+        <v>5.545696916319014</v>
       </c>
       <c r="H97">
-        <v>5.5460000000000003</v>
+        <v>51.617579893262089</v>
       </c>
       <c r="I97" t="s">
         <v>40</v>
@@ -22782,10 +22782,10 @@
         <v>1</v>
       </c>
       <c r="G98">
-        <v>51.612000000000002</v>
+        <v>5.5497305775696804</v>
       </c>
       <c r="H98">
-        <v>5.55</v>
+        <v>51.612453521387607</v>
       </c>
       <c r="I98" t="s">
         <v>40</v>
@@ -22997,10 +22997,10 @@
         <v>1</v>
       </c>
       <c r="G99">
-        <v>51.609000000000002</v>
+        <v>5.5515756654829369</v>
       </c>
       <c r="H99">
-        <v>5.5519999999999996</v>
+        <v>51.609402825875478</v>
       </c>
       <c r="I99" t="s">
         <v>40</v>
@@ -23212,10 +23212,10 @@
         <v>1</v>
       </c>
       <c r="G100">
-        <v>51.621000000000002</v>
+        <v>5.5378596006976739</v>
       </c>
       <c r="H100">
-        <v>5.5380000000000003</v>
+        <v>51.621359439959321</v>
       </c>
       <c r="I100" t="s">
         <v>40</v>
@@ -23427,10 +23427,10 @@
         <v>1</v>
       </c>
       <c r="G101">
-        <v>51.593000000000004</v>
+        <v>5.5407346193091849</v>
       </c>
       <c r="H101">
-        <v>5.5410000000000004</v>
+        <v>51.592746186588371</v>
       </c>
       <c r="I101" t="s">
         <v>40</v>
